--- a/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T09:39:16+00:00</t>
+    <t>2025-08-01T06:15:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:15:10+00:00</t>
+    <t>2025-08-11T13:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:13:26+00:00</t>
+    <t>2025-08-11T13:13:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:13:41+00:00</t>
+    <t>2025-08-11T17:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T17:10:25+00:00</t>
+    <t>2025-09-16T13:34:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -859,7 +859,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -968,7 +968,7 @@
     <t>PractitionerRole.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>

--- a/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T13:34:10+00:00</t>
+    <t>2025-09-18T08:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T08:13:56+00:00</t>
+    <t>2025-09-18T15:39:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T15:39:47+00:00</t>
+    <t>2025-09-18T15:54:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T15:54:11+00:00</t>
+    <t>2025-10-08T12:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3071,7 +3071,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>120</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>213</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>218</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>223</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>244</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>327</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>337</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>366</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
         <v>371</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>384</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>389</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>394</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>399</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>404</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>409</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>414</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>426</v>
       </c>
@@ -9639,7 +9639,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>433</v>
       </c>
@@ -15542,7 +15542,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="114" hidden="true">
+    <row r="114">
       <c r="A114" t="s" s="2">
         <v>555</v>
       </c>
@@ -16012,7 +16012,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="118" hidden="true">
+    <row r="118">
       <c r="A118" t="s" s="2">
         <v>591</v>
       </c>
@@ -16944,7 +16944,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="126" hidden="true">
+    <row r="126">
       <c r="A126" t="s" s="2">
         <v>620</v>
       </c>
@@ -17640,7 +17640,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="132" hidden="true">
+    <row r="132">
       <c r="A132" t="s" s="2">
         <v>632</v>
       </c>
@@ -17755,7 +17755,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="133" hidden="true">
+    <row r="133">
       <c r="A133" t="s" s="2">
         <v>635</v>
       </c>
@@ -17874,12 +17874,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO133">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:14:02+00:00</t>
+    <t>2025-10-08T12:28:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:28:03+00:00</t>
+    <t>2025-10-08T12:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1342,7 +1342,7 @@
 </t>
   </si>
   <si>
-    <t>Référence vers la location dans PractitionerRole.contained représentant les coordonnées de l'activité (idLocation).</t>
+    <t>The location(s) at which this practitioner provides care</t>
   </si>
   <si>
     <t>The location(s) at which this practitioner provides care.</t>
@@ -9524,7 +9524,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
         <v>426</v>
       </c>
@@ -9540,10 +9540,10 @@
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>78</v>

--- a/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$124</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4930" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4595" uniqueCount="627">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:56:25+00:00</t>
+    <t>2025-10-08T13:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -991,45 +991,6 @@
   </si>
   <si>
     <t>./IdentifierIssuingAuthority</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier:numeroAm</t>
-  </si>
-  <si>
-    <t>numeroAm</t>
-  </si>
-  <si>
-    <t>[Donnée restreinte] : Identifiant d’activité propre à l’Assurance Maladie. format: 9 digits. synonyme: numeroAM</t>
-  </si>
-  <si>
-    <t>SituationExercice.numeroAM</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier:numeroAm.id</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier:numeroAm.extension</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier:numeroAm.use</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier:numeroAm.type</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier:numeroAm.system</t>
-  </si>
-  <si>
-    <t>https://www.ameli.fr</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier:numeroAm.value</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier:numeroAm.period</t>
-  </si>
-  <si>
-    <t>PractitionerRole.identifier:numeroAm.assigner</t>
   </si>
   <si>
     <t>PractitionerRole.active</t>
@@ -2316,7 +2277,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO133"/>
+  <dimension ref="A1:AO124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6470,28 +6431,26 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>314</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>78</v>
@@ -6500,22 +6459,26 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>234</v>
+        <v>315</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>316</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O36" t="s" s="2">
-        <v>237</v>
+        <v>319</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="R36" t="s" s="2">
         <v>78</v>
       </c>
@@ -6559,13 +6522,13 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
@@ -6574,27 +6537,27 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>317</v>
+        <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>240</v>
+        <v>321</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>241</v>
+        <v>322</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>243</v>
+        <v>323</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>248</v>
+        <v>324</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6605,28 +6568,30 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>104</v>
+        <v>297</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>105</v>
+        <v>325</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>106</v>
+        <v>326</v>
       </c>
       <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
@@ -6674,7 +6639,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>107</v>
+        <v>324</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6686,41 +6651,41 @@
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>78</v>
+        <v>328</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>108</v>
+        <v>329</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>78</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>250</v>
+        <v>332</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -6732,17 +6697,15 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -6779,31 +6742,31 @@
         <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
@@ -6823,46 +6786,44 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>252</v>
+        <v>333</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>253</v>
+        <v>112</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>254</v>
+        <v>113</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6886,52 +6847,52 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>260</v>
+        <v>118</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>261</v>
+        <v>108</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6942,10 +6903,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>263</v>
+        <v>334</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6968,20 +6929,18 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>264</v>
+        <v>335</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>265</v>
+        <v>336</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>266</v>
+        <v>337</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
       </c>
@@ -7005,13 +6964,13 @@
         <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>269</v>
+        <v>78</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -7029,7 +6988,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>271</v>
+        <v>339</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -7038,19 +6997,19 @@
         <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>78</v>
+        <v>341</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>272</v>
+        <v>342</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>261</v>
+        <v>343</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
@@ -7061,10 +7020,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>274</v>
+        <v>344</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7072,7 +7031,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>90</v>
@@ -7087,32 +7046,32 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>137</v>
+        <v>335</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>275</v>
+        <v>345</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>276</v>
+        <v>346</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="R41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>78</v>
@@ -7148,7 +7107,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>281</v>
+        <v>349</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -7157,33 +7116,33 @@
         <v>90</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>78</v>
+        <v>350</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>282</v>
+        <v>351</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>283</v>
+        <v>352</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>284</v>
+        <v>78</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>286</v>
+        <v>353</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7191,13 +7150,13 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>78</v>
@@ -7206,17 +7165,15 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>104</v>
+        <v>354</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>287</v>
+        <v>355</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -7229,7 +7186,7 @@
         <v>78</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>78</v>
@@ -7265,7 +7222,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>291</v>
+        <v>353</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7283,24 +7240,24 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>292</v>
+        <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>293</v>
+        <v>357</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>296</v>
+        <v>358</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7314,7 +7271,7 @@
         <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>78</v>
@@ -7323,13 +7280,13 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>297</v>
+        <v>359</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>298</v>
+        <v>360</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>299</v>
+        <v>361</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7380,7 +7337,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>300</v>
+        <v>358</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7398,13 +7355,13 @@
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>301</v>
+        <v>78</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>302</v>
+        <v>362</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>78</v>
@@ -7412,10 +7369,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>305</v>
+        <v>363</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7426,7 +7383,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -7438,18 +7395,20 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>307</v>
+        <v>364</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>308</v>
+        <v>365</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
       </c>
@@ -7473,37 +7432,33 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>78</v>
+        <v>368</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>310</v>
+        <v>363</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
@@ -7515,13 +7470,13 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>311</v>
+        <v>369</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>312</v>
+        <v>370</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -7529,18 +7484,20 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="D45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>90</v>
@@ -7555,26 +7512,24 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>328</v>
+        <v>264</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q45" t="s" s="2">
-        <v>333</v>
-      </c>
+      <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
         <v>78</v>
       </c>
@@ -7594,13 +7549,11 @@
         <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>78</v>
+        <v>374</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
@@ -7618,13 +7571,13 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
@@ -7633,29 +7586,31 @@
         <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7664,7 +7619,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>91</v>
@@ -7676,17 +7631,19 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="O46" t="s" s="2">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7711,13 +7668,11 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>78</v>
+        <v>379</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
@@ -7735,13 +7690,13 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
@@ -7750,29 +7705,31 @@
         <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>78</v>
+        <v>380</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>342</v>
+        <v>370</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>344</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7784,25 +7741,29 @@
         <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>104</v>
+        <v>264</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>105</v>
+        <v>383</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7826,13 +7787,11 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>78</v>
+        <v>384</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
@@ -7850,76 +7809,80 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>107</v>
+        <v>363</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>78</v>
+        <v>385</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>78</v>
+        <v>369</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>108</v>
+        <v>370</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="D48" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>111</v>
+        <v>264</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>112</v>
+        <v>388</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>113</v>
+        <v>365</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7943,31 +7906,29 @@
         <v>78</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>78</v>
+        <v>389</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>118</v>
+        <v>363</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7979,32 +7940,34 @@
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>78</v>
+        <v>390</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>78</v>
+        <v>369</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>108</v>
+        <v>370</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="D49" t="s" s="2">
         <v>78</v>
       </c>
@@ -8016,7 +7979,7 @@
         <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>78</v>
@@ -8025,18 +7988,20 @@
         <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>348</v>
+        <v>264</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
       </c>
@@ -8060,13 +8025,11 @@
         <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>78</v>
+        <v>394</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>78</v>
@@ -8084,44 +8047,46 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>353</v>
+        <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="D50" t="s" s="2">
         <v>78</v>
       </c>
@@ -8133,7 +8098,7 @@
         <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>78</v>
@@ -8142,24 +8107,24 @@
         <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>348</v>
+        <v>264</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q50" t="s" s="2">
-        <v>361</v>
-      </c>
+      <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
         <v>78</v>
       </c>
@@ -8179,13 +8144,11 @@
         <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>78</v>
+        <v>399</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>78</v>
@@ -8203,31 +8166,31 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>353</v>
+        <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>78</v>
@@ -8235,21 +8198,23 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="D51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>91</v>
@@ -8261,16 +8226,20 @@
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="O51" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
@@ -8294,13 +8263,11 @@
         <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>78</v>
+        <v>404</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>78</v>
@@ -8318,13 +8285,13 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>78</v>
@@ -8333,27 +8300,27 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>78</v>
+        <v>405</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>78</v>
+        <v>369</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>370</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8364,10 +8331,10 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>78</v>
@@ -8376,13 +8343,13 @@
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>372</v>
+        <v>264</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>373</v>
+        <v>407</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8409,13 +8376,11 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>78</v>
+        <v>409</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
@@ -8433,13 +8398,13 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
@@ -8451,13 +8416,13 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>78</v>
+        <v>410</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>375</v>
+        <v>411</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>78</v>
+        <v>412</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>78</v>
@@ -8465,10 +8430,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8491,20 +8456,16 @@
         <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>264</v>
+        <v>414</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
       </c>
@@ -8528,27 +8489,31 @@
         <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Y53" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z53" t="s" s="2">
-        <v>381</v>
+        <v>78</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AC53" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8566,28 +8531,26 @@
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>382</v>
+        <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>343</v>
+        <v>418</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>78</v>
+        <v>419</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
         <v>78</v>
       </c>
@@ -8596,7 +8559,7 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>91</v>
@@ -8605,23 +8568,19 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>264</v>
+        <v>421</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>78</v>
       </c>
@@ -8645,11 +8604,13 @@
         <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="Y54" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z54" t="s" s="2">
-        <v>387</v>
+        <v>78</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>78</v>
@@ -8667,7 +8628,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>376</v>
+        <v>420</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8682,31 +8643,29 @@
         <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>388</v>
+        <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>343</v>
+        <v>78</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>389</v>
+        <v>426</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
         <v>78</v>
       </c>
@@ -8715,7 +8674,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>91</v>
@@ -8724,22 +8683,20 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>264</v>
+        <v>427</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>391</v>
+        <v>428</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8764,29 +8721,29 @@
         <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="Y55" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z55" t="s" s="2">
-        <v>392</v>
+        <v>78</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="AC55" s="2"/>
       <c r="AD55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>78</v>
+        <v>432</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8795,36 +8752,36 @@
         <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>102</v>
+        <v>433</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>382</v>
+        <v>435</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>343</v>
+        <v>437</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>394</v>
+        <v>438</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>395</v>
+        <v>439</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>78</v>
@@ -8834,31 +8791,29 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>264</v>
+        <v>440</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8883,11 +8838,13 @@
         <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="Y56" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z56" t="s" s="2">
-        <v>397</v>
+        <v>78</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>78</v>
@@ -8905,7 +8862,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8914,37 +8871,35 @@
         <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>102</v>
+        <v>433</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>382</v>
+        <v>435</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>343</v>
+        <v>437</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
         <v>78</v>
       </c>
@@ -8956,29 +8911,25 @@
         <v>90</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>264</v>
+        <v>104</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>401</v>
+        <v>105</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>78</v>
       </c>
@@ -9002,11 +8953,13 @@
         <v>78</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="Y57" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z57" t="s" s="2">
-        <v>402</v>
+        <v>78</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>78</v>
@@ -9024,80 +8977,74 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>376</v>
+        <v>107</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>403</v>
+        <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>382</v>
+        <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>383</v>
+        <v>108</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>343</v>
+        <v>78</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>404</v>
+        <v>445</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>264</v>
+        <v>111</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>406</v>
+        <v>204</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>78</v>
       </c>
@@ -9121,29 +9068,31 @@
         <v>78</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="Y58" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z58" t="s" s="2">
-        <v>407</v>
+        <v>78</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>376</v>
+        <v>118</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -9155,68 +9104,64 @@
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>408</v>
+        <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>382</v>
+        <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>383</v>
+        <v>78</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>343</v>
+        <v>78</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>376</v>
+        <v>446</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>410</v>
+        <v>448</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>264</v>
+        <v>449</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>78</v>
       </c>
@@ -9240,11 +9185,13 @@
         <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="Y59" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z59" t="s" s="2">
-        <v>412</v>
+        <v>78</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -9262,7 +9209,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>376</v>
+        <v>118</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9274,34 +9221,32 @@
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>413</v>
+        <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>382</v>
+        <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>383</v>
+        <v>78</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>343</v>
+        <v>78</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>414</v>
+        <v>452</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
         <v>78</v>
       </c>
@@ -9310,32 +9255,28 @@
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>264</v>
+        <v>104</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>416</v>
+        <v>105</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>78</v>
       </c>
@@ -9359,11 +9300,13 @@
         <v>78</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="Y60" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z60" t="s" s="2">
-        <v>417</v>
+        <v>78</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>78</v>
@@ -9381,31 +9324,31 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>376</v>
+        <v>107</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>418</v>
+        <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>382</v>
+        <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>383</v>
+        <v>108</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>343</v>
+        <v>78</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>78</v>
@@ -9413,10 +9356,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>419</v>
+        <v>454</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>419</v>
+        <v>455</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9436,16 +9379,16 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>264</v>
+        <v>111</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>420</v>
+        <v>204</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>421</v>
+        <v>205</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9472,29 +9415,31 @@
         <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="Y61" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z61" t="s" s="2">
-        <v>422</v>
+        <v>78</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>419</v>
+        <v>118</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9506,19 +9451,19 @@
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>423</v>
+        <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>424</v>
+        <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>425</v>
+        <v>78</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>78</v>
@@ -9526,10 +9471,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>426</v>
+        <v>457</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9537,10 +9482,10 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
@@ -9549,25 +9494,27 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>427</v>
+        <v>137</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" t="s" s="2">
-        <v>78</v>
+        <v>461</v>
       </c>
       <c r="S62" t="s" s="2">
         <v>78</v>
@@ -9609,19 +9556,19 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>426</v>
+        <v>462</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
@@ -9630,21 +9577,21 @@
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>430</v>
+        <v>202</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>431</v>
+        <v>78</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>432</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>433</v>
+        <v>463</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>433</v>
+        <v>464</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9655,10 +9602,10 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>78</v>
@@ -9667,13 +9614,13 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>434</v>
+        <v>157</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>436</v>
+        <v>466</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9685,7 +9632,7 @@
         <v>78</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>78</v>
+        <v>467</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>78</v>
@@ -9700,13 +9647,11 @@
         <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>78</v>
+        <v>468</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>78</v>
@@ -9724,13 +9669,13 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>433</v>
+        <v>469</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>78</v>
@@ -9742,10 +9687,10 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>437</v>
+        <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>438</v>
+        <v>202</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9756,12 +9701,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="D64" t="s" s="2">
         <v>78</v>
       </c>
@@ -9770,10 +9717,10 @@
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>78</v>
@@ -9782,18 +9729,16 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>440</v>
+        <v>472</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>441</v>
+        <v>473</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>442</v>
+        <v>474</v>
       </c>
       <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>443</v>
-      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>78</v>
       </c>
@@ -9829,17 +9774,19 @@
         <v>78</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AC64" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>445</v>
+        <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>439</v>
+        <v>118</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9848,22 +9795,22 @@
         <v>80</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>446</v>
+        <v>119</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>447</v>
+        <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>448</v>
+        <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>450</v>
+        <v>78</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>78</v>
@@ -9871,14 +9818,12 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
         <v>78</v>
       </c>
@@ -9887,7 +9832,7 @@
         <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>78</v>
@@ -9899,18 +9844,16 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>453</v>
+        <v>104</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>454</v>
+        <v>105</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>442</v>
+        <v>106</v>
       </c>
       <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>443</v>
-      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>78</v>
       </c>
@@ -9958,31 +9901,31 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>439</v>
+        <v>107</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>446</v>
+        <v>78</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>455</v>
+        <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>448</v>
+        <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>449</v>
+        <v>108</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>450</v>
+        <v>78</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>78</v>
@@ -9990,21 +9933,21 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>78</v>
@@ -10016,15 +9959,17 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -10061,31 +10006,31 @@
         <v>78</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
@@ -10105,21 +10050,23 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="D67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
@@ -10134,7 +10081,7 @@
         <v>111</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>204</v>
+        <v>479</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>205</v>
@@ -10176,16 +10123,16 @@
         <v>78</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>118</v>
@@ -10220,20 +10167,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>90</v>
@@ -10248,13 +10193,13 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>462</v>
+        <v>104</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>463</v>
+        <v>105</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>464</v>
+        <v>106</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10305,19 +10250,19 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
@@ -10326,7 +10271,7 @@
         <v>78</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -10337,10 +10282,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10351,7 +10296,7 @@
         <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>78</v>
@@ -10363,13 +10308,13 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10408,31 +10353,31 @@
         <v>78</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>78</v>
@@ -10441,7 +10386,7 @@
         <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
@@ -10452,10 +10397,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10463,10 +10408,10 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
@@ -10478,22 +10423,24 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>204</v>
+        <v>458</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>78</v>
+        <v>478</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>78</v>
@@ -10523,31 +10470,31 @@
         <v>78</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>118</v>
+        <v>462</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>78</v>
@@ -10556,7 +10503,7 @@
         <v>78</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10567,10 +10514,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10578,7 +10525,7 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>90</v>
@@ -10593,24 +10540,22 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>137</v>
+        <v>264</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>474</v>
+        <v>78</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>78</v>
@@ -10628,13 +10573,11 @@
         <v>78</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>78</v>
+        <v>488</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>78</v>
@@ -10652,10 +10595,10 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>90</v>
@@ -10664,7 +10607,7 @@
         <v>78</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>78</v>
@@ -10684,12 +10627,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="D72" t="s" s="2">
         <v>78</v>
       </c>
@@ -10710,13 +10655,13 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>478</v>
+        <v>204</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>479</v>
+        <v>205</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10728,7 +10673,7 @@
         <v>78</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>480</v>
+        <v>78</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>78</v>
@@ -10743,11 +10688,13 @@
         <v>78</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y72" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z72" t="s" s="2">
-        <v>481</v>
+        <v>78</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>78</v>
@@ -10765,19 +10712,19 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>482</v>
+        <v>118</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>78</v>
@@ -10786,7 +10733,7 @@
         <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10797,14 +10744,12 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>484</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
         <v>78</v>
       </c>
@@ -10825,13 +10770,13 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>485</v>
+        <v>104</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>486</v>
+        <v>105</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>487</v>
+        <v>106</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10882,19 +10827,19 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>78</v>
@@ -10903,7 +10848,7 @@
         <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10914,10 +10859,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10928,7 +10873,7 @@
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>78</v>
@@ -10940,13 +10885,13 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10985,31 +10930,31 @@
         <v>78</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>78</v>
@@ -11018,7 +10963,7 @@
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -11029,21 +10974,21 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>78</v>
@@ -11055,16 +11000,16 @@
         <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>112</v>
+        <v>458</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>113</v>
+        <v>459</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>114</v>
+        <v>460</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11072,7 +11017,7 @@
       </c>
       <c r="Q75" s="2"/>
       <c r="R75" t="s" s="2">
-        <v>78</v>
+        <v>490</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>78</v>
@@ -11102,31 +11047,31 @@
         <v>78</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>118</v>
+        <v>462</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>78</v>
@@ -11135,7 +11080,7 @@
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -11146,14 +11091,12 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>491</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
         <v>78</v>
       </c>
@@ -11174,13 +11117,13 @@
         <v>78</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>492</v>
+        <v>465</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>205</v>
+        <v>466</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11231,19 +11174,19 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>118</v>
+        <v>469</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>78</v>
@@ -11252,7 +11195,7 @@
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -11263,12 +11206,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="D77" t="s" s="2">
         <v>78</v>
       </c>
@@ -11277,7 +11222,7 @@
         <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>78</v>
@@ -11289,13 +11234,13 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11346,19 +11291,19 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>78</v>
@@ -11367,7 +11312,7 @@
         <v>78</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -11378,10 +11323,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11392,7 +11337,7 @@
         <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>78</v>
@@ -11404,13 +11349,13 @@
         <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11449,31 +11394,31 @@
         <v>78</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>78</v>
@@ -11482,7 +11427,7 @@
         <v>78</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -11493,10 +11438,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11504,10 +11449,10 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>78</v>
@@ -11519,24 +11464,22 @@
         <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>471</v>
+        <v>204</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>491</v>
+        <v>78</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>78</v>
@@ -11566,31 +11509,31 @@
         <v>78</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>475</v>
+        <v>118</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
@@ -11599,7 +11542,7 @@
         <v>78</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>78</v>
@@ -11613,7 +11556,7 @@
         <v>499</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11621,7 +11564,7 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>90</v>
@@ -11636,22 +11579,24 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>264</v>
+        <v>137</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q80" s="2"/>
       <c r="R80" t="s" s="2">
-        <v>78</v>
+        <v>496</v>
       </c>
       <c r="S80" t="s" s="2">
         <v>78</v>
@@ -11669,11 +11614,13 @@
         <v>78</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="Y80" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z80" t="s" s="2">
-        <v>501</v>
+        <v>78</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>78</v>
@@ -11691,10 +11638,10 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>90</v>
@@ -11703,7 +11650,7 @@
         <v>78</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
@@ -11723,14 +11670,12 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
         <v>78</v>
       </c>
@@ -11751,13 +11696,13 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>204</v>
+        <v>465</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>205</v>
+        <v>466</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11808,19 +11753,19 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>118</v>
+        <v>469</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>78</v>
@@ -11829,7 +11774,7 @@
         <v>78</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11840,12 +11785,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="D82" t="s" s="2">
         <v>78</v>
       </c>
@@ -11866,13 +11813,13 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11923,19 +11870,19 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>78</v>
@@ -11944,7 +11891,7 @@
         <v>78</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>78</v>
@@ -11955,10 +11902,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11969,7 +11916,7 @@
         <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>78</v>
@@ -11981,13 +11928,13 @@
         <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12026,31 +11973,31 @@
         <v>78</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>78</v>
@@ -12059,7 +12006,7 @@
         <v>78</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>78</v>
@@ -12070,10 +12017,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12081,10 +12028,10 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>78</v>
@@ -12096,24 +12043,22 @@
         <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>471</v>
+        <v>204</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>503</v>
+        <v>78</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>78</v>
@@ -12143,31 +12088,31 @@
         <v>78</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>475</v>
+        <v>118</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>78</v>
@@ -12176,7 +12121,7 @@
         <v>78</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -12187,10 +12132,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12198,7 +12143,7 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>90</v>
@@ -12213,22 +12158,24 @@
         <v>78</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q85" s="2"/>
       <c r="R85" t="s" s="2">
-        <v>78</v>
+        <v>502</v>
       </c>
       <c r="S85" t="s" s="2">
         <v>78</v>
@@ -12270,10 +12217,10 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>90</v>
@@ -12282,7 +12229,7 @@
         <v>78</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>78</v>
@@ -12302,14 +12249,12 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C86" t="s" s="2">
-        <v>509</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
         <v>78</v>
       </c>
@@ -12318,7 +12263,7 @@
         <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>78</v>
@@ -12330,13 +12275,13 @@
         <v>78</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>204</v>
+        <v>465</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>205</v>
+        <v>466</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12387,19 +12332,19 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>118</v>
+        <v>469</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>78</v>
@@ -12408,7 +12353,7 @@
         <v>78</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
@@ -12419,12 +12364,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="C87" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>508</v>
+      </c>
       <c r="D87" t="s" s="2">
         <v>78</v>
       </c>
@@ -12433,7 +12380,7 @@
         <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>78</v>
@@ -12445,13 +12392,13 @@
         <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12502,19 +12449,19 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>78</v>
@@ -12523,7 +12470,7 @@
         <v>78</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>78</v>
@@ -12534,10 +12481,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12548,7 +12495,7 @@
         <v>79</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>78</v>
@@ -12560,13 +12507,13 @@
         <v>78</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12605,31 +12552,31 @@
         <v>78</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>78</v>
@@ -12638,7 +12585,7 @@
         <v>78</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>78</v>
@@ -12649,10 +12596,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12660,10 +12607,10 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>78</v>
@@ -12675,24 +12622,22 @@
         <v>78</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>471</v>
+        <v>204</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" t="s" s="2">
-        <v>509</v>
+        <v>78</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>78</v>
@@ -12722,31 +12667,31 @@
         <v>78</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>475</v>
+        <v>118</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>78</v>
@@ -12755,7 +12700,7 @@
         <v>78</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>78</v>
@@ -12766,10 +12711,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12777,7 +12722,7 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>90</v>
@@ -12792,22 +12737,24 @@
         <v>78</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q90" s="2"/>
       <c r="R90" t="s" s="2">
-        <v>78</v>
+        <v>508</v>
       </c>
       <c r="S90" t="s" s="2">
         <v>78</v>
@@ -12849,10 +12796,10 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>90</v>
@@ -12861,7 +12808,7 @@
         <v>78</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>78</v>
@@ -12881,14 +12828,12 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>515</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
         <v>78</v>
       </c>
@@ -12909,13 +12854,13 @@
         <v>78</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>204</v>
+        <v>465</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>205</v>
+        <v>466</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12966,19 +12911,19 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>118</v>
+        <v>469</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>78</v>
@@ -12987,7 +12932,7 @@
         <v>78</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>78</v>
@@ -12998,12 +12943,14 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="C92" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>514</v>
+      </c>
       <c r="D92" t="s" s="2">
         <v>78</v>
       </c>
@@ -13024,13 +12971,13 @@
         <v>78</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13081,19 +13028,19 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>78</v>
@@ -13102,7 +13049,7 @@
         <v>78</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>78</v>
@@ -13113,10 +13060,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13127,7 +13074,7 @@
         <v>79</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>78</v>
@@ -13139,13 +13086,13 @@
         <v>78</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13184,31 +13131,31 @@
         <v>78</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC93" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>78</v>
@@ -13217,7 +13164,7 @@
         <v>78</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>78</v>
@@ -13228,10 +13175,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13239,10 +13186,10 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>78</v>
@@ -13254,24 +13201,22 @@
         <v>78</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>471</v>
+        <v>204</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q94" s="2"/>
       <c r="R94" t="s" s="2">
-        <v>515</v>
+        <v>78</v>
       </c>
       <c r="S94" t="s" s="2">
         <v>78</v>
@@ -13301,31 +13246,31 @@
         <v>78</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC94" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>475</v>
+        <v>118</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>78</v>
@@ -13334,7 +13279,7 @@
         <v>78</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>78</v>
@@ -13345,10 +13290,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13356,7 +13301,7 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>90</v>
@@ -13371,22 +13316,24 @@
         <v>78</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q95" s="2"/>
       <c r="R95" t="s" s="2">
-        <v>78</v>
+        <v>514</v>
       </c>
       <c r="S95" t="s" s="2">
         <v>78</v>
@@ -13428,10 +13375,10 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>90</v>
@@ -13440,7 +13387,7 @@
         <v>78</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>78</v>
@@ -13460,14 +13407,12 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C96" t="s" s="2">
-        <v>521</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
         <v>78</v>
       </c>
@@ -13476,7 +13421,7 @@
         <v>79</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>78</v>
@@ -13488,13 +13433,13 @@
         <v>78</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>111</v>
+        <v>315</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>204</v>
+        <v>465</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>205</v>
+        <v>466</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13545,19 +13490,19 @@
         <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>118</v>
+        <v>469</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>78</v>
@@ -13566,7 +13511,7 @@
         <v>78</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>78</v>
@@ -13577,12 +13522,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="C97" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>520</v>
+      </c>
       <c r="D97" t="s" s="2">
         <v>78</v>
       </c>
@@ -13603,13 +13550,13 @@
         <v>78</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>106</v>
+        <v>205</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13660,19 +13607,19 @@
         <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>78</v>
@@ -13681,7 +13628,7 @@
         <v>78</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>78</v>
@@ -13692,10 +13639,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13706,7 +13653,7 @@
         <v>79</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>78</v>
@@ -13718,13 +13665,13 @@
         <v>78</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13763,31 +13710,31 @@
         <v>78</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC98" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>78</v>
@@ -13796,7 +13743,7 @@
         <v>78</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>78</v>
@@ -13807,10 +13754,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13818,10 +13765,10 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>78</v>
@@ -13833,24 +13780,22 @@
         <v>78</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>471</v>
+        <v>204</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q99" s="2"/>
       <c r="R99" t="s" s="2">
-        <v>521</v>
+        <v>78</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>78</v>
@@ -13880,31 +13825,31 @@
         <v>78</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC99" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>475</v>
+        <v>118</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>78</v>
@@ -13913,7 +13858,7 @@
         <v>78</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>78</v>
@@ -13924,10 +13869,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13935,7 +13880,7 @@
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>90</v>
@@ -13950,22 +13895,24 @@
         <v>78</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q100" s="2"/>
       <c r="R100" t="s" s="2">
-        <v>78</v>
+        <v>520</v>
       </c>
       <c r="S100" t="s" s="2">
         <v>78</v>
@@ -14007,10 +13954,10 @@
         <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>90</v>
@@ -14019,7 +13966,7 @@
         <v>78</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>78</v>
@@ -14039,14 +13986,12 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C101" t="s" s="2">
-        <v>527</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
         <v>78</v>
       </c>
@@ -14067,13 +14012,13 @@
         <v>78</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>111</v>
+        <v>315</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>204</v>
+        <v>465</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>205</v>
+        <v>466</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14124,19 +14069,19 @@
         <v>78</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>118</v>
+        <v>469</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>78</v>
@@ -14145,7 +14090,7 @@
         <v>78</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>78</v>
@@ -14156,10 +14101,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>494</v>
+        <v>457</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14167,7 +14112,7 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>90</v>
@@ -14182,22 +14127,24 @@
         <v>78</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>105</v>
+        <v>458</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q102" s="2"/>
       <c r="R102" t="s" s="2">
-        <v>78</v>
+        <v>526</v>
       </c>
       <c r="S102" t="s" s="2">
         <v>78</v>
@@ -14239,10 +14186,10 @@
         <v>78</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>107</v>
+        <v>462</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>90</v>
@@ -14260,7 +14207,7 @@
         <v>78</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>78</v>
@@ -14271,10 +14218,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>496</v>
+        <v>464</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14297,13 +14244,13 @@
         <v>78</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>111</v>
+        <v>528</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>204</v>
+        <v>465</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>205</v>
+        <v>466</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14342,31 +14289,31 @@
         <v>78</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC103" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>118</v>
+        <v>469</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>78</v>
@@ -14375,7 +14322,7 @@
         <v>78</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>78</v>
@@ -14386,10 +14333,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B104" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14409,30 +14356,28 @@
         <v>78</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>471</v>
+        <v>531</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>473</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="N104" s="2"/>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q104" s="2"/>
       <c r="R104" t="s" s="2">
-        <v>527</v>
+        <v>78</v>
       </c>
       <c r="S104" t="s" s="2">
-        <v>78</v>
+        <v>533</v>
       </c>
       <c r="T104" t="s" s="2">
         <v>78</v>
@@ -14447,13 +14392,13 @@
         <v>78</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>78</v>
+        <v>534</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>78</v>
+        <v>535</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>78</v>
@@ -14471,42 +14416,42 @@
         <v>78</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>475</v>
+        <v>536</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>78</v>
+        <v>537</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>78</v>
+        <v>538</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>78</v>
+        <v>539</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>202</v>
+        <v>540</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>78</v>
+        <v>541</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="105" hidden="true">
+    <row r="105">
       <c r="A105" t="s" s="2">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>500</v>
+        <v>543</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14514,31 +14459,35 @@
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>328</v>
+        <v>104</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>478</v>
+        <v>544</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
+        <v>545</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>547</v>
+      </c>
       <c r="P105" t="s" s="2">
         <v>78</v>
       </c>
@@ -14586,7 +14535,7 @@
         <v>78</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>482</v>
+        <v>548</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
@@ -14601,16 +14550,16 @@
         <v>102</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>78</v>
+        <v>549</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>78</v>
+        <v>550</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>202</v>
+        <v>551</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>78</v>
@@ -14618,14 +14567,12 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>532</v>
+        <v>552</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C106" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
         <v>78</v>
       </c>
@@ -14640,22 +14587,26 @@
         <v>78</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>204</v>
+        <v>554</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
+        <v>555</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>557</v>
+      </c>
       <c r="P106" t="s" s="2">
         <v>78</v>
       </c>
@@ -14679,13 +14630,13 @@
         <v>78</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>78</v>
+        <v>558</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>78</v>
+        <v>559</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>78</v>
@@ -14703,31 +14654,31 @@
         <v>78</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>118</v>
+        <v>560</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>78</v>
+        <v>561</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>78</v>
+        <v>562</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>78</v>
+        <v>563</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>78</v>
+        <v>564</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>78</v>
@@ -14735,10 +14686,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>534</v>
+        <v>565</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>494</v>
+        <v>566</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14758,18 +14709,20 @@
         <v>78</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>104</v>
+        <v>567</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>105</v>
+        <v>568</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N107" s="2"/>
+        <v>569</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>570</v>
+      </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>78</v>
@@ -14818,7 +14771,7 @@
         <v>78</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>107</v>
+        <v>571</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
@@ -14830,13 +14783,13 @@
         <v>78</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>108</v>
@@ -14850,10 +14803,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>535</v>
+        <v>572</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>496</v>
+        <v>573</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14864,7 +14817,7 @@
         <v>79</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>78</v>
@@ -14873,16 +14826,16 @@
         <v>78</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>111</v>
+        <v>297</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>204</v>
+        <v>574</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>205</v>
+        <v>575</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -14921,54 +14874,54 @@
         <v>78</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AC108" t="s" s="2">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="AD108" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>118</v>
+        <v>576</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>78</v>
+        <v>577</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>78</v>
+        <v>303</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="109" hidden="true">
+    <row r="109">
       <c r="A109" t="s" s="2">
-        <v>536</v>
+        <v>578</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>498</v>
+        <v>578</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14976,13 +14929,13 @@
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H109" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I109" t="s" s="2">
         <v>78</v>
@@ -14991,16 +14944,16 @@
         <v>78</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>137</v>
+        <v>579</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>471</v>
+        <v>580</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>472</v>
+        <v>581</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>473</v>
+        <v>582</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15008,7 +14961,7 @@
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" t="s" s="2">
-        <v>533</v>
+        <v>78</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>78</v>
@@ -15050,19 +15003,19 @@
         <v>78</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>475</v>
+        <v>578</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>78</v>
@@ -15071,7 +15024,7 @@
         <v>78</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>202</v>
+        <v>583</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>78</v>
@@ -15082,10 +15035,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>537</v>
+        <v>584</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>500</v>
+        <v>584</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15108,13 +15061,13 @@
         <v>78</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>328</v>
+        <v>104</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>478</v>
+        <v>105</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>479</v>
+        <v>106</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -15165,7 +15118,7 @@
         <v>78</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>482</v>
+        <v>107</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
@@ -15177,7 +15130,7 @@
         <v>78</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>78</v>
@@ -15186,7 +15139,7 @@
         <v>78</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>78</v>
@@ -15197,21 +15150,21 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>538</v>
+        <v>585</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>470</v>
+        <v>585</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>78</v>
@@ -15223,16 +15176,16 @@
         <v>78</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>471</v>
+        <v>112</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>472</v>
+        <v>113</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>473</v>
+        <v>114</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15240,7 +15193,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>539</v>
+        <v>78</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>78</v>
@@ -15282,19 +15235,19 @@
         <v>78</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>475</v>
+        <v>118</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>78</v>
@@ -15303,7 +15256,7 @@
         <v>78</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>78</v>
@@ -15314,42 +15267,46 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>540</v>
+        <v>586</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>477</v>
+        <v>586</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>78</v>
+        <v>587</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>541</v>
+        <v>111</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>478</v>
+        <v>588</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="P112" t="s" s="2">
         <v>78</v>
       </c>
@@ -15397,19 +15354,19 @@
         <v>78</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>482</v>
+        <v>590</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>78</v>
@@ -15429,10 +15386,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>542</v>
+        <v>591</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>543</v>
+        <v>591</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15440,10 +15397,10 @@
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>78</v>
@@ -15452,16 +15409,16 @@
         <v>78</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K113" t="s" s="2">
         <v>179</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>544</v>
+        <v>592</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>545</v>
+        <v>593</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -15473,7 +15430,7 @@
         <v>78</v>
       </c>
       <c r="S113" t="s" s="2">
-        <v>546</v>
+        <v>78</v>
       </c>
       <c r="T113" t="s" s="2">
         <v>78</v>
@@ -15491,10 +15448,10 @@
         <v>257</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>547</v>
+        <v>594</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>548</v>
+        <v>595</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>78</v>
@@ -15512,42 +15469,42 @@
         <v>78</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>549</v>
+        <v>591</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>550</v>
+        <v>78</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>551</v>
+        <v>78</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>552</v>
+        <v>78</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>553</v>
+        <v>583</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>554</v>
+        <v>78</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>555</v>
+        <v>596</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>556</v>
+        <v>596</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15555,35 +15512,31 @@
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H114" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I114" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>104</v>
+        <v>315</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>557</v>
+        <v>597</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>560</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>78</v>
       </c>
@@ -15631,7 +15584,7 @@
         <v>78</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
@@ -15646,16 +15599,16 @@
         <v>102</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>562</v>
+        <v>78</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>563</v>
+        <v>78</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>78</v>
@@ -15663,10 +15616,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>565</v>
+        <v>599</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>566</v>
+        <v>599</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15683,26 +15636,24 @@
         <v>78</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>179</v>
+        <v>600</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>567</v>
+        <v>601</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>568</v>
+        <v>602</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>570</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
         <v>78</v>
       </c>
@@ -15726,13 +15677,13 @@
         <v>78</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>571</v>
+        <v>78</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>572</v>
+        <v>78</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>78</v>
@@ -15750,7 +15701,7 @@
         <v>78</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>573</v>
+        <v>599</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
@@ -15765,16 +15716,16 @@
         <v>102</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>574</v>
+        <v>78</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>575</v>
+        <v>78</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>577</v>
+        <v>78</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>78</v>
@@ -15782,10 +15733,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>578</v>
+        <v>604</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>579</v>
+        <v>604</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15805,19 +15756,19 @@
         <v>78</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>582</v>
+        <v>606</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>583</v>
+        <v>603</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -15867,7 +15818,7 @@
         <v>78</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>584</v>
+        <v>604</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>79</v>
@@ -15885,10 +15836,10 @@
         <v>78</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>108</v>
+        <v>583</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>78</v>
@@ -15897,12 +15848,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="117" hidden="true">
+    <row r="117">
       <c r="A117" t="s" s="2">
-        <v>585</v>
+        <v>607</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>586</v>
+        <v>607</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15913,25 +15864,25 @@
         <v>79</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H117" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I117" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>297</v>
+        <v>579</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>587</v>
+        <v>608</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>588</v>
+        <v>609</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -15982,13 +15933,13 @@
         <v>78</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>589</v>
+        <v>607</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>78</v>
@@ -16000,24 +15951,24 @@
         <v>78</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16028,10 +15979,10 @@
         <v>79</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I118" t="s" s="2">
         <v>78</v>
@@ -16040,17 +15991,15 @@
         <v>78</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>592</v>
+        <v>104</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>593</v>
+        <v>105</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>595</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N118" s="2"/>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
         <v>78</v>
@@ -16099,19 +16048,19 @@
         <v>78</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>591</v>
+        <v>107</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>78</v>
@@ -16120,7 +16069,7 @@
         <v>78</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>596</v>
+        <v>108</v>
       </c>
       <c r="AN118" t="s" s="2">
         <v>78</v>
@@ -16131,21 +16080,21 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>78</v>
@@ -16157,15 +16106,17 @@
         <v>78</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N119" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
         <v>78</v>
@@ -16214,19 +16165,19 @@
         <v>78</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>78</v>
@@ -16246,14 +16197,14 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>110</v>
+        <v>587</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
@@ -16266,24 +16217,26 @@
         <v>78</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K120" t="s" s="2">
         <v>111</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>112</v>
+        <v>588</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>113</v>
+        <v>589</v>
       </c>
       <c r="N120" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="O120" s="2"/>
+      <c r="O120" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="P120" t="s" s="2">
         <v>78</v>
       </c>
@@ -16331,7 +16284,7 @@
         <v>78</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>118</v>
+        <v>590</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>79</v>
@@ -16352,7 +16305,7 @@
         <v>78</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>78</v>
@@ -16363,46 +16316,42 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>600</v>
+        <v>78</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
         <v>78</v>
       </c>
@@ -16450,19 +16399,19 @@
         <v>78</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>78</v>
@@ -16471,7 +16420,7 @@
         <v>78</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>78</v>
@@ -16482,10 +16431,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16496,7 +16445,7 @@
         <v>79</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>78</v>
@@ -16508,13 +16457,13 @@
         <v>78</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>179</v>
+        <v>297</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -16541,13 +16490,13 @@
         <v>78</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>607</v>
+        <v>78</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>608</v>
+        <v>78</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>78</v>
@@ -16565,13 +16514,13 @@
         <v>78</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>78</v>
@@ -16586,7 +16535,7 @@
         <v>78</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="AN122" t="s" s="2">
         <v>78</v>
@@ -16595,12 +16544,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="123" hidden="true">
+    <row r="123">
       <c r="A123" t="s" s="2">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16611,10 +16560,10 @@
         <v>79</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H123" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I123" t="s" s="2">
         <v>78</v>
@@ -16623,13 +16572,13 @@
         <v>78</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>328</v>
+        <v>104</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -16680,7 +16629,7 @@
         <v>78</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>79</v>
@@ -16701,7 +16650,7 @@
         <v>78</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>78</v>
@@ -16710,12 +16659,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="124" hidden="true">
+    <row r="124">
       <c r="A124" t="s" s="2">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16726,10 +16675,10 @@
         <v>79</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H124" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I124" t="s" s="2">
         <v>78</v>
@@ -16738,18 +16687,18 @@
         <v>78</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="O124" s="2"/>
+        <v>625</v>
+      </c>
+      <c r="N124" s="2"/>
+      <c r="O124" t="s" s="2">
+        <v>626</v>
+      </c>
       <c r="P124" t="s" s="2">
         <v>78</v>
       </c>
@@ -16797,13 +16746,13 @@
         <v>78</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>78</v>
@@ -16818,1062 +16767,17 @@
         <v>78</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>596</v>
+        <v>108</v>
       </c>
       <c r="AN124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="125" hidden="true">
-      <c r="A125" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="B125" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E125" s="2"/>
-      <c r="F125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="O125" s="2"/>
-      <c r="P125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q125" s="2"/>
-      <c r="R125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AN125" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO125" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="B126" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="C126" s="2"/>
-      <c r="D126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E126" s="2"/>
-      <c r="F126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="N126" s="2"/>
-      <c r="O126" s="2"/>
-      <c r="P126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q126" s="2"/>
-      <c r="R126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO126" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="127" hidden="true">
-      <c r="A127" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="B127" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="C127" s="2"/>
-      <c r="D127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E127" s="2"/>
-      <c r="F127" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G127" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N127" s="2"/>
-      <c r="O127" s="2"/>
-      <c r="P127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q127" s="2"/>
-      <c r="R127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF127" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AG127" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH127" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO127" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="128" hidden="true">
-      <c r="A128" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="B128" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="C128" s="2"/>
-      <c r="D128" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="E128" s="2"/>
-      <c r="F128" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O128" s="2"/>
-      <c r="P128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q128" s="2"/>
-      <c r="R128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AG128" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH128" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ128" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM128" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO128" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="129" hidden="true">
-      <c r="A129" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="B129" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="C129" s="2"/>
-      <c r="D129" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="E129" s="2"/>
-      <c r="F129" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G129" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I129" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="J129" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K129" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="P129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q129" s="2"/>
-      <c r="R129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF129" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH129" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ129" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO129" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="130" hidden="true">
-      <c r="A130" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="B130" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="C130" s="2"/>
-      <c r="D130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E130" s="2"/>
-      <c r="F130" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G130" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K130" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N130" s="2"/>
-      <c r="O130" s="2"/>
-      <c r="P130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q130" s="2"/>
-      <c r="R130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF130" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="AG130" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH130" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ130" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM130" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO130" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="131" hidden="true">
-      <c r="A131" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="B131" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="C131" s="2"/>
-      <c r="D131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E131" s="2"/>
-      <c r="F131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G131" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K131" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="N131" s="2"/>
-      <c r="O131" s="2"/>
-      <c r="P131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q131" s="2"/>
-      <c r="R131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="AG131" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH131" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ131" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM131" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AN131" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO131" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="B132" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="C132" s="2"/>
-      <c r="D132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E132" s="2"/>
-      <c r="F132" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G132" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H132" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K132" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="N132" s="2"/>
-      <c r="O132" s="2"/>
-      <c r="P132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q132" s="2"/>
-      <c r="R132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF132" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="AG132" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH132" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ132" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM132" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AN132" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO132" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="B133" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="C133" s="2"/>
-      <c r="D133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E133" s="2"/>
-      <c r="F133" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G133" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K133" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="N133" s="2"/>
-      <c r="O133" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="P133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q133" s="2"/>
-      <c r="R133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="AG133" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH133" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ133" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM133" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AN133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO133" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO133">
+  <autoFilter ref="A1:AO124">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -17883,7 +16787,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI132">
+  <conditionalFormatting sqref="A2:AI123">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
+++ b/main/ig/StructureDefinition-as-dp-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T13:03:27+00:00</t>
+    <t>2025-10-10T07:08:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4787,7 +4787,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>213</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>78</v>
@@ -4904,7 +4904,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>218</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>78</v>
@@ -5021,7 +5021,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>223</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>78</v>
